--- a/local_data/feature_table.xlsx
+++ b/local_data/feature_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_HD\PhD_notebooks\project_paralog_SL_prediction\local_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B0D82-BC70-41A7-8FCE-FD6A5F8B55A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44D1B2F-C2A5-4838-9021-5C20B4E1E3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="6885" windowWidth="27495" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,6 @@
     <t>shared_ppi_mean_essentiality</t>
   </si>
   <si>
-    <t>The mean essentiality of A1 and A2's shared protein-protein interactors. Essentiality for each interactor is calculated as the percentage of cell lines in which it is essential (CERES score &lt; -0.6).</t>
-  </si>
-  <si>
     <t>Protein Complex Membership</t>
   </si>
   <si>
@@ -390,18 +387,12 @@
     <t>mean_complex_essentiality</t>
   </si>
   <si>
-    <t>The mean essentiality of the complexes in which A1 and/or A2 form sub-units. Complex essentiality corresponds to the mean essentiality of the sub-units, excluding A1 and A2. Essentiality for each sub-unit is calculated as the percentage of cell lines in which it is essential (CERES score &lt; -0.6).</t>
-  </si>
-  <si>
     <t>Colocalisation</t>
   </si>
   <si>
     <t>colocalisation</t>
   </si>
   <si>
-    <t>The Jaccard index (intersection over union) of A1 and A2's subcellular locations.</t>
-  </si>
-  <si>
     <t>Human Protein Atlas</t>
   </si>
   <si>
@@ -445,6 +436,15 @@
   </si>
   <si>
     <t>Ensembl, InParanoid</t>
+  </si>
+  <si>
+    <t>The mean essentiality of A1 and A2's shared protein-protein interactors. Essentiality for each interactor is calculated as the percentage of cell lines in which it is essential (CERES score &lt; -0.6). The feature value is 0 when not relevant, i.e. when the pair has no shared interactors.</t>
+  </si>
+  <si>
+    <t>The mean essentiality of the complexes in which A1 and/or A2 form sub-units. Complex essentiality corresponds to the mean essentiality of the sub-units, excluding A1 and A2. Essentiality for each sub-unit is calculated as the percentage of cell lines in which it is essential (CERES score &lt; -0.6). The feature value is 0 when not relevant, i.e. when neither gene is a complex member.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Jaccard index (intersection over union) of A1 and A2's subcellular locations. The feature value is positive for gene pairs with known shared localisations and zero otherwise. </t>
   </si>
 </sst>
 </file>
@@ -736,8 +736,8 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -955,7 +955,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
@@ -1054,112 +1054,112 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
